--- a/CFLT.xlsx
+++ b/CFLT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093AF3FA-A4A2-461A-B4CC-15C4636DDCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B692CB6-6064-4171-B645-1191F275DF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22950" yWindow="0" windowWidth="22530" windowHeight="20625" xr2:uid="{D8995F61-9A8C-4B33-92DD-09DD5DAE1AB6}"/>
+    <workbookView xWindow="-29190" yWindow="1890" windowWidth="26880" windowHeight="16065" activeTab="1" xr2:uid="{D8995F61-9A8C-4B33-92DD-09DD5DAE1AB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={8B435CEC-7321-4DFE-B215-178BE2140E07}</author>
+  </authors>
+  <commentList>
+    <comment ref="N6" authorId="0" shapeId="0" xr:uid="{8B435CEC-7321-4DFE-B215-178BE2140E07}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Q3 guidance: 245-246</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Price</t>
   </si>
@@ -154,13 +172,37 @@
   </si>
   <si>
     <t>CapEx</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>&gt;100k customers</t>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>Founded</t>
+  </si>
+  <si>
+    <t>Redpanda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -172,6 +214,19 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -192,10 +247,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -213,8 +269,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -236,16 +297,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>26276</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>26276</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>26276</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>124811</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>32845</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -260,7 +321,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7679121" y="26276"/>
+          <a:off x="8296604" y="0"/>
           <a:ext cx="0" cy="7652845"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -286,15 +347,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>21021</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>21021</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>98535</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -335,6 +396,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{01355C67-58C7-47F0-9948-1C7322BBDFD0}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,23 +719,36 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N6" dT="2024-12-16T14:18:24.28" personId="{01355C67-58C7-47F0-9948-1C7322BBDFD0}" id="{8B435CEC-7321-4DFE-B215-178BE2140E07}">
+    <text>Q3 guidance: 245-246</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CDE7274-B73F-4A04-BADE-068E82998B1D}">
-  <dimension ref="I2:K7"/>
+  <dimension ref="B2:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>22.2</v>
-      </c>
-    </row>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.2">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -680,16 +760,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
         <f>+J2*J3</f>
-        <v>7164.4616778</v>
-      </c>
-    </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+        <v>9843.0667195000005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -701,7 +781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -712,13 +792,21 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2">
         <f>+J4-J5+J6</f>
-        <v>6323.4996777999995</v>
+        <v>9002.1047194999992</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10">
+        <v>2014</v>
       </c>
     </row>
   </sheetData>
@@ -727,29 +815,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358AE4C1-F15B-4E43-B3F5-75C996828846}">
-  <dimension ref="A1:AE29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358AE4C1-F15B-4E43-B3F5-75C996828846}">
+  <dimension ref="A1:AI32"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="14" width="9.140625" style="3"/>
+    <col min="3" max="18" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
@@ -786,744 +874,2006 @@
       <c r="N2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q2">
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2">
         <v>2021</v>
       </c>
-      <c r="R2">
+      <c r="V2">
         <v>2022</v>
       </c>
-      <c r="S2">
+      <c r="W2">
         <v>2023</v>
       </c>
-      <c r="T2">
-        <f>+S2+1</f>
+      <c r="X2">
+        <f t="shared" ref="X2:AI2" si="0">+W2+1</f>
         <v>2024</v>
       </c>
-      <c r="U2">
-        <f>+T2+1</f>
+      <c r="Y2">
+        <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="V2">
-        <f>+U2+1</f>
+      <c r="Z2">
+        <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="W2">
-        <f>+V2+1</f>
+      <c r="AA2">
+        <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="X2">
-        <f>+W2+1</f>
+      <c r="AB2">
+        <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="Y2">
-        <f>+X2+1</f>
+      <c r="AC2">
+        <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="Z2">
-        <f>+Y2+1</f>
+      <c r="AD2">
+        <f t="shared" si="0"/>
         <v>2030</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AE2">
+        <f t="shared" si="0"/>
         <v>2031</v>
       </c>
-      <c r="AB2">
-        <f>+AA2+1</f>
+      <c r="AF2">
+        <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="AC2">
-        <f>+AB2+1</f>
+      <c r="AG2">
+        <f t="shared" si="0"/>
         <v>2033</v>
       </c>
-      <c r="AD2">
-        <f>+AC2+1</f>
+      <c r="AH2">
+        <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="AE2">
-        <f>+AD2+1</f>
+      <c r="AI2">
+        <f t="shared" si="0"/>
         <v>2035</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="4">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="C6" s="4">
+        <v>113.92</v>
+      </c>
+      <c r="D6" s="4">
+        <v>127.018</v>
+      </c>
+      <c r="E6" s="4">
+        <v>138.72999999999999</v>
+      </c>
+      <c r="F6" s="4">
+        <f>+V6-E6-D6-C6</f>
+        <v>155.34099999999995</v>
+      </c>
+      <c r="G6" s="4">
         <v>160.56700000000001</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H6" s="4">
         <v>176.488</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4">
+      <c r="I6" s="4">
+        <v>189.27</v>
+      </c>
+      <c r="J6" s="4">
+        <f>+W6-I6-H6-G6</f>
+        <v>202.78699999999998</v>
+      </c>
+      <c r="K6" s="4">
         <v>206.90199999999999</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L6" s="4">
         <v>224.702</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="Q3" s="2">
+      <c r="M6" s="4">
+        <v>239.851</v>
+      </c>
+      <c r="N6" s="4">
+        <f>+M6+10</f>
+        <v>249.851</v>
+      </c>
+      <c r="O6" s="4">
+        <f>+N6+10</f>
+        <v>259.851</v>
+      </c>
+      <c r="P6" s="4">
+        <f>+O6+10</f>
+        <v>269.851</v>
+      </c>
+      <c r="Q6" s="4">
+        <f>+P6+10</f>
+        <v>279.851</v>
+      </c>
+      <c r="R6" s="4">
+        <f>+Q6+10</f>
+        <v>289.851</v>
+      </c>
+      <c r="U6" s="2">
         <v>347.09899999999999</v>
       </c>
-      <c r="R3" s="2">
+      <c r="V6" s="2">
         <v>535.00900000000001</v>
       </c>
-      <c r="S3" s="2">
+      <c r="W6" s="2">
         <v>729.11199999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="X6" s="2">
+        <f>SUM(O6:R6)</f>
+        <v>1099.404</v>
+      </c>
+      <c r="Y6" s="2">
+        <f>+X6*1.15</f>
+        <v>1264.3145999999999</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>+Y6*1.15</f>
+        <v>1453.9617899999998</v>
+      </c>
+      <c r="AA6" s="2">
+        <f>+Z6*1.1</f>
+        <v>1599.3579689999999</v>
+      </c>
+      <c r="AB6" s="2">
+        <f t="shared" ref="Z6:AD6" si="1">+AA6*1.1</f>
+        <v>1759.2937659000002</v>
+      </c>
+      <c r="AC6" s="2">
+        <f t="shared" si="1"/>
+        <v>1935.2231424900003</v>
+      </c>
+      <c r="AD6" s="2">
+        <f t="shared" si="1"/>
+        <v>2128.7454567390005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="C7" s="4">
+        <v>12.218999999999999</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12.388999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>13.002000000000001</v>
+      </c>
+      <c r="F7" s="4">
+        <f>+V7-E7-D7-C7</f>
+        <v>13.325000000000001</v>
+      </c>
+      <c r="G7" s="4">
         <v>13.734999999999999</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H7" s="4">
         <v>12.797000000000001</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
+      <c r="I7" s="4">
+        <v>10.911</v>
+      </c>
+      <c r="J7" s="4">
+        <f>+W7-I7-H7-G7</f>
+        <v>10.397000000000002</v>
+      </c>
+      <c r="K7" s="4">
         <v>10.335000000000001</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L7" s="4">
         <v>10.284000000000001</v>
       </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="Q4" s="2">
+      <c r="M7" s="4">
+        <v>10.348000000000001</v>
+      </c>
+      <c r="N7" s="4">
+        <f>+M7</f>
+        <v>10.348000000000001</v>
+      </c>
+      <c r="O7" s="4">
+        <f>+N7</f>
+        <v>10.348000000000001</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" ref="P7:R7" si="2">+O7</f>
+        <v>10.348000000000001</v>
+      </c>
+      <c r="Q7" s="4">
+        <f t="shared" si="2"/>
+        <v>10.348000000000001</v>
+      </c>
+      <c r="R7" s="4">
+        <f t="shared" si="2"/>
+        <v>10.348000000000001</v>
+      </c>
+      <c r="U7" s="2">
         <v>40.765000000000001</v>
       </c>
-      <c r="R4" s="2">
+      <c r="V7" s="2">
         <v>50.935000000000002</v>
       </c>
-      <c r="S4" s="2">
+      <c r="W7" s="2">
         <v>47.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="5" t="s">
+      <c r="X7" s="2">
+        <f>SUM(O7:R7)</f>
+        <v>41.392000000000003</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" ref="Y7:AD7" si="3">+X7*1.1</f>
+        <v>45.531200000000005</v>
+      </c>
+      <c r="Z7" s="2">
+        <f t="shared" si="3"/>
+        <v>50.084320000000012</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="3"/>
+        <v>55.092752000000019</v>
+      </c>
+      <c r="AB7" s="2">
+        <f t="shared" si="3"/>
+        <v>60.602027200000023</v>
+      </c>
+      <c r="AC7" s="2">
+        <f t="shared" si="3"/>
+        <v>66.66222992000003</v>
+      </c>
+      <c r="AD7" s="2">
+        <f t="shared" si="3"/>
+        <v>73.328452912000046</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6">
-        <f>+G3+G4</f>
+      <c r="C8" s="6">
+        <f t="shared" ref="C8:F8" si="4">+C6+C7</f>
+        <v>126.139</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="4"/>
+        <v>139.40700000000001</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="4"/>
+        <v>151.732</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="4"/>
+        <v>168.66599999999994</v>
+      </c>
+      <c r="G8" s="6">
+        <f>+G6+G7</f>
         <v>174.30200000000002</v>
       </c>
-      <c r="H5" s="6">
-        <f>+H3+H4</f>
+      <c r="H8" s="6">
+        <f>+H6+H7</f>
         <v>189.285</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6">
-        <f>+K3+K4</f>
+      <c r="I8" s="6">
+        <f>+I6+I7</f>
+        <v>200.18100000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <f>+J6+J7</f>
+        <v>213.18399999999997</v>
+      </c>
+      <c r="K8" s="6">
+        <f>+K6+K7</f>
         <v>217.23699999999999</v>
       </c>
-      <c r="L5" s="6">
-        <f>+L3+L4</f>
+      <c r="L8" s="6">
+        <f>+L6+L7</f>
         <v>234.98599999999999</v>
       </c>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="Q5" s="5">
-        <f>+Q3+Q4</f>
+      <c r="M8" s="6">
+        <f>+M6+M7</f>
+        <v>250.19900000000001</v>
+      </c>
+      <c r="N8" s="6">
+        <f>+N6+N7</f>
+        <v>260.19900000000001</v>
+      </c>
+      <c r="O8" s="6">
+        <f>+O6+O7</f>
+        <v>270.19900000000001</v>
+      </c>
+      <c r="P8" s="6">
+        <f>+P6+P7</f>
+        <v>280.19900000000001</v>
+      </c>
+      <c r="Q8" s="6">
+        <f>+Q6+Q7</f>
+        <v>290.19900000000001</v>
+      </c>
+      <c r="R8" s="6">
+        <f>+R6+R7</f>
+        <v>300.19900000000001</v>
+      </c>
+      <c r="U8" s="5">
+        <f>+U6+U7</f>
         <v>387.86399999999998</v>
       </c>
-      <c r="R5" s="5">
-        <f>+R3+R4</f>
+      <c r="V8" s="5">
+        <f>+V6+V7</f>
         <v>585.94399999999996</v>
       </c>
-      <c r="S5" s="5">
-        <f>+S3+S4</f>
+      <c r="W8" s="5">
+        <f>+W6+W7</f>
         <v>776.952</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="X8" s="5">
+        <f>+X6+X7</f>
+        <v>1140.796</v>
+      </c>
+      <c r="Y8" s="5">
+        <f>+Y6+Y7</f>
+        <v>1309.8457999999998</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" ref="Z8:AD8" si="5">+Z6+Z7</f>
+        <v>1504.0461099999998</v>
+      </c>
+      <c r="AA8" s="5">
+        <f t="shared" si="5"/>
+        <v>1654.4507209999999</v>
+      </c>
+      <c r="AB8" s="5">
+        <f t="shared" si="5"/>
+        <v>1819.8957931000002</v>
+      </c>
+      <c r="AC8" s="5">
+        <f t="shared" si="5"/>
+        <v>2001.8853724100004</v>
+      </c>
+      <c r="AD8" s="5">
+        <f t="shared" si="5"/>
+        <v>2202.0739096510006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="C9" s="4">
+        <v>45.777000000000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>49.509</v>
+      </c>
+      <c r="E9" s="4">
+        <v>53.18</v>
+      </c>
+      <c r="F9" s="4">
+        <f>+V9-E9-D9-C9</f>
+        <v>53.948999999999984</v>
+      </c>
+      <c r="G9" s="4">
         <v>58.143999999999998</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H9" s="4">
         <v>57.92</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
+      <c r="I9" s="4">
+        <v>56.548999999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <f>+W9-I9-H9-G9</f>
+        <v>57.056999999999981</v>
+      </c>
+      <c r="K9" s="4">
         <v>61.220999999999997</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L9" s="4">
         <v>64.980999999999995</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="Q6" s="2">
+      <c r="M9" s="4">
+        <v>63.703000000000003</v>
+      </c>
+      <c r="N9" s="4">
+        <f>+N8*0.25</f>
+        <v>65.049750000000003</v>
+      </c>
+      <c r="O9" s="4">
+        <f>+O8*0.25</f>
+        <v>67.549750000000003</v>
+      </c>
+      <c r="P9" s="4">
+        <f>+P8*0.25</f>
+        <v>70.049750000000003</v>
+      </c>
+      <c r="Q9" s="4">
+        <f>+Q8*0.25</f>
+        <v>72.549750000000003</v>
+      </c>
+      <c r="R9" s="4">
+        <f>+R8*0.25</f>
+        <v>75.049750000000003</v>
+      </c>
+      <c r="U9" s="2">
         <v>137.292</v>
       </c>
-      <c r="R6" s="2">
+      <c r="V9" s="2">
         <v>202.41499999999999</v>
       </c>
-      <c r="S6" s="2">
+      <c r="W9" s="2">
         <v>229.67</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+      <c r="X9" s="2">
+        <f>SUM(O9:R9)</f>
+        <v>285.19900000000001</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>+Y8-Y10</f>
+        <v>314.36299199999996</v>
+      </c>
+      <c r="Z9" s="2">
+        <f t="shared" ref="Z9:AD9" si="6">+Z8-Z10</f>
+        <v>345.93060530000002</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="6"/>
+        <v>363.97915861999991</v>
+      </c>
+      <c r="AB9" s="2">
+        <f t="shared" si="6"/>
+        <v>382.1781165509999</v>
+      </c>
+      <c r="AC9" s="2">
+        <f t="shared" si="6"/>
+        <v>400.3770744819999</v>
+      </c>
+      <c r="AD9" s="2">
+        <f t="shared" si="6"/>
+        <v>418.39404283369004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <f>+G5-G6</f>
+      <c r="C10" s="4">
+        <f>+C8-C9</f>
+        <v>80.361999999999995</v>
+      </c>
+      <c r="D10" s="4">
+        <f>+D8-D9</f>
+        <v>89.89800000000001</v>
+      </c>
+      <c r="E10" s="4">
+        <f>+E8-E9</f>
+        <v>98.551999999999992</v>
+      </c>
+      <c r="F10" s="4">
+        <f>+F8-F9</f>
+        <v>114.71699999999996</v>
+      </c>
+      <c r="G10" s="4">
+        <f>+G8-G9</f>
         <v>116.15800000000002</v>
       </c>
-      <c r="H7" s="4">
-        <f>+H5-H6</f>
+      <c r="H10" s="4">
+        <f>+H8-H9</f>
         <v>131.36500000000001</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4">
-        <f>+K5-K6</f>
+      <c r="I10" s="4">
+        <f>+I8-I9</f>
+        <v>143.63200000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <f>+J8-J9</f>
+        <v>156.12699999999998</v>
+      </c>
+      <c r="K10" s="4">
+        <f>+K8-K9</f>
         <v>156.01599999999999</v>
       </c>
-      <c r="L7" s="4">
-        <f>+L5-L6</f>
+      <c r="L10" s="4">
+        <f>+L8-L9</f>
         <v>170.005</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="Q7" s="2">
-        <f>+Q5-Q6</f>
+      <c r="M10" s="4">
+        <f>+M8-M9</f>
+        <v>186.49600000000001</v>
+      </c>
+      <c r="N10" s="4">
+        <f>+N8-N9</f>
+        <v>195.14924999999999</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" ref="O10:R10" si="7">+O8-O9</f>
+        <v>202.64924999999999</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="7"/>
+        <v>210.14924999999999</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="7"/>
+        <v>217.64924999999999</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="7"/>
+        <v>225.14924999999999</v>
+      </c>
+      <c r="U10" s="2">
+        <f>+U8-U9</f>
         <v>250.57199999999997</v>
       </c>
-      <c r="R7" s="2">
-        <f>+R5-R6</f>
+      <c r="V10" s="2">
+        <f>+V8-V9</f>
         <v>383.529</v>
       </c>
-      <c r="S7" s="2">
-        <f>+S5-S6</f>
+      <c r="W10" s="2">
+        <f>+W8-W9</f>
         <v>547.28200000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+      <c r="X10" s="2">
+        <f>+X8-X9</f>
+        <v>855.59699999999998</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>+Y8*0.76</f>
+        <v>995.48280799999986</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>+Z8*0.77</f>
+        <v>1158.1155046999997</v>
+      </c>
+      <c r="AA10" s="2">
+        <f>+AA8*0.78</f>
+        <v>1290.47156238</v>
+      </c>
+      <c r="AB10" s="2">
+        <f>+AB8*0.79</f>
+        <v>1437.7176765490003</v>
+      </c>
+      <c r="AC10" s="2">
+        <f>+AC8*0.8</f>
+        <v>1601.5082979280005</v>
+      </c>
+      <c r="AD10" s="2">
+        <f>+AD8*0.81</f>
+        <v>1783.6798668173105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4">
+      <c r="C11" s="4">
+        <v>57.661000000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>64.471999999999994</v>
+      </c>
+      <c r="E11" s="4">
+        <v>70.099000000000004</v>
+      </c>
+      <c r="F11" s="4">
+        <f>+V11-E11-D11-C11</f>
+        <v>71.809000000000026</v>
+      </c>
+      <c r="G11" s="4">
         <v>84.89</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H11" s="4">
         <v>85.677000000000007</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4">
+      <c r="I11" s="4">
+        <v>91.236999999999995</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11:J13" si="8">+W11-I11-H11-G11</f>
+        <v>86.947999999999965</v>
+      </c>
+      <c r="K11" s="4">
         <v>97.570999999999998</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L11" s="4">
         <v>106.06</v>
       </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="Q8" s="2">
+      <c r="M11" s="4">
+        <v>102.72</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" ref="N11:N13" si="9">+J11*1.1</f>
+        <v>95.642799999999966</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" ref="O11:O13" si="10">+K11*1.1</f>
+        <v>107.32810000000001</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" ref="P11:P13" si="11">+L11*1.1</f>
+        <v>116.66600000000001</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" ref="Q11:Q13" si="12">+M11*1.1</f>
+        <v>112.992</v>
+      </c>
+      <c r="R11" s="4">
+        <f t="shared" ref="R11:R13" si="13">+N11*1.1</f>
+        <v>105.20707999999998</v>
+      </c>
+      <c r="U11" s="2">
         <v>161.92500000000001</v>
       </c>
-      <c r="R8" s="2">
+      <c r="V11" s="2">
         <v>264.041</v>
       </c>
-      <c r="S8" s="2">
+      <c r="W11" s="2">
         <v>348.75200000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+      <c r="X11" s="2">
+        <f t="shared" ref="X11:X13" si="14">SUM(O11:R11)</f>
+        <v>442.19317999999998</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>+X11*1.01</f>
+        <v>446.61511179999997</v>
+      </c>
+      <c r="Z11" s="2">
+        <f t="shared" ref="Z11:AD11" si="15">+Y11*1.01</f>
+        <v>451.08126291799999</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="15"/>
+        <v>455.59207554718</v>
+      </c>
+      <c r="AB11" s="2">
+        <f t="shared" si="15"/>
+        <v>460.14799630265179</v>
+      </c>
+      <c r="AC11" s="2">
+        <f t="shared" si="15"/>
+        <v>464.74947626567831</v>
+      </c>
+      <c r="AD11" s="2">
+        <f t="shared" si="15"/>
+        <v>469.39697102833509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="C12" s="4">
+        <v>106.702</v>
+      </c>
+      <c r="D12" s="4">
+        <v>112.754</v>
+      </c>
+      <c r="E12" s="4">
+        <v>114.312</v>
+      </c>
+      <c r="F12" s="4">
+        <f>+V12-E12-D12-C12</f>
+        <v>122.68399999999997</v>
+      </c>
+      <c r="G12" s="4">
         <v>128.624</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H12" s="4">
         <v>127.77</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4">
+      <c r="I12" s="4">
+        <v>128.624</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="8"/>
+        <v>119.91099999999997</v>
+      </c>
+      <c r="K12" s="4">
         <v>131.352</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L12" s="4">
         <v>132.86500000000001</v>
       </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="Q9" s="2">
+      <c r="M12" s="4">
+        <v>137.96799999999999</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="9"/>
+        <v>131.90209999999999</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="10"/>
+        <v>144.48720000000003</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="11"/>
+        <v>146.15150000000003</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="12"/>
+        <v>151.76480000000001</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="13"/>
+        <v>145.09231</v>
+      </c>
+      <c r="U12" s="2">
         <v>319.33100000000002</v>
       </c>
-      <c r="R9" s="2">
+      <c r="V12" s="2">
         <v>456.452</v>
       </c>
-      <c r="S9" s="2">
+      <c r="W12" s="2">
         <v>504.92899999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="X12" s="2">
+        <f t="shared" si="14"/>
+        <v>587.49581000000012</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" ref="Y12:AD12" si="16">+X12*1.05</f>
+        <v>616.87060050000014</v>
+      </c>
+      <c r="Z12" s="2">
+        <f t="shared" si="16"/>
+        <v>647.7141305250002</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="16"/>
+        <v>680.09983705125023</v>
+      </c>
+      <c r="AB12" s="2">
+        <f t="shared" si="16"/>
+        <v>714.10482890381275</v>
+      </c>
+      <c r="AC12" s="2">
+        <f t="shared" si="16"/>
+        <v>749.81007034900347</v>
+      </c>
+      <c r="AD12" s="2">
+        <f t="shared" si="16"/>
+        <v>787.30057386645365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="C13" s="4">
+        <v>27.481000000000002</v>
+      </c>
+      <c r="D13" s="4">
+        <v>29.978999999999999</v>
+      </c>
+      <c r="E13" s="4">
+        <v>33.040999999999997</v>
+      </c>
+      <c r="F13" s="4">
+        <f>+V13-E13-D13-C13</f>
+        <v>35.208999999999996</v>
+      </c>
+      <c r="G13" s="4">
         <v>35.354999999999997</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H13" s="4">
         <v>36.343000000000004</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4">
+      <c r="I13" s="4">
+        <v>31.873999999999999</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="8"/>
+        <v>33.948000000000015</v>
+      </c>
+      <c r="K13" s="4">
         <v>38.444000000000003</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L13" s="4">
         <v>39.429000000000002</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="Q10" s="2">
+      <c r="M13" s="4">
+        <v>39.470999999999997</v>
+      </c>
+      <c r="N13" s="4">
+        <f>+J13*1.1</f>
+        <v>37.342800000000018</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="10"/>
+        <v>42.288400000000003</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="11"/>
+        <v>43.371900000000004</v>
+      </c>
+      <c r="Q13" s="4">
+        <f t="shared" si="12"/>
+        <v>43.418100000000003</v>
+      </c>
+      <c r="R13" s="4">
+        <f t="shared" si="13"/>
+        <v>41.077080000000024</v>
+      </c>
+      <c r="U13" s="2">
         <v>108.93600000000001</v>
       </c>
-      <c r="R10" s="2">
+      <c r="V13" s="2">
         <v>125.71</v>
       </c>
-      <c r="S10" s="2">
+      <c r="W13" s="2">
         <v>137.52000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="X13" s="2">
+        <f t="shared" si="14"/>
+        <v>170.15548000000004</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" ref="Y13:AD13" si="17">+X13*1.01</f>
+        <v>171.85703480000004</v>
+      </c>
+      <c r="Z13" s="2">
+        <f t="shared" si="17"/>
+        <v>173.57560514800005</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="17"/>
+        <v>175.31136119948005</v>
+      </c>
+      <c r="AB13" s="2">
+        <f t="shared" si="17"/>
+        <v>177.06447481147484</v>
+      </c>
+      <c r="AC13" s="2">
+        <f t="shared" si="17"/>
+        <v>178.8351195595896</v>
+      </c>
+      <c r="AD13" s="2">
+        <f t="shared" si="17"/>
+        <v>180.62347075518551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
-        <f t="shared" ref="G11:K11" si="0">+G8+G9+G10</f>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:D14" si="18">+C11+C12+C13</f>
+        <v>191.84399999999999</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="18"/>
+        <v>207.20499999999998</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" ref="C14:G14" si="19">+E11+E12+E13</f>
+        <v>217.452</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="19"/>
+        <v>229.702</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" ref="G14:J14" si="20">+G11+G12+G13</f>
         <v>248.869</v>
       </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
+      <c r="H14" s="4">
+        <f t="shared" si="20"/>
         <v>249.79000000000002</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f>+K8+K9+K10</f>
+      <c r="I14" s="4">
+        <f t="shared" si="20"/>
+        <v>251.73499999999999</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="20"/>
+        <v>240.80699999999993</v>
+      </c>
+      <c r="K14" s="4">
+        <f>+K11+K12+K13</f>
         <v>267.36700000000002</v>
       </c>
-      <c r="L11" s="4">
-        <f>+L8+L9+L10</f>
+      <c r="L14" s="4">
+        <f>+L11+L12+L13</f>
         <v>278.35400000000004</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="Q11" s="2">
-        <f>+Q10+Q9+Q8</f>
+      <c r="M14" s="4">
+        <f>+M11+M12+M13</f>
+        <v>280.15899999999999</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" ref="N14:R14" si="21">+N11+N12+N13</f>
+        <v>264.8877</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="21"/>
+        <v>294.10370000000006</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="21"/>
+        <v>306.18940000000003</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="21"/>
+        <v>308.17489999999998</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="21"/>
+        <v>291.37646999999998</v>
+      </c>
+      <c r="U14" s="2">
+        <f>+U13+U12+U11</f>
         <v>590.19200000000001</v>
       </c>
-      <c r="R11" s="2">
-        <f>+R10+R9+R8</f>
+      <c r="V14" s="2">
+        <f>+V13+V12+V11</f>
         <v>846.20299999999997</v>
       </c>
-      <c r="S11" s="2">
-        <f>+S10+S9+S8</f>
+      <c r="W14" s="2">
+        <f>+W13+W12+W11</f>
         <v>991.20100000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+      <c r="X14" s="2">
+        <f>+X13+X12+X11</f>
+        <v>1199.84447</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" ref="Y14:AD14" si="22">+Y13+Y12+Y11</f>
+        <v>1235.3427471000002</v>
+      </c>
+      <c r="Z14" s="2">
+        <f t="shared" si="22"/>
+        <v>1272.3709985910002</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="22"/>
+        <v>1311.0032737979104</v>
+      </c>
+      <c r="AB14" s="2">
+        <f t="shared" si="22"/>
+        <v>1351.3173000179395</v>
+      </c>
+      <c r="AC14" s="2">
+        <f t="shared" si="22"/>
+        <v>1393.3946661742714</v>
+      </c>
+      <c r="AD14" s="2">
+        <f t="shared" si="22"/>
+        <v>1437.3210156499742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <f t="shared" ref="G12:K12" si="1">+G7-G11</f>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:D15" si="23">+C10-C14</f>
+        <v>-111.482</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="23"/>
+        <v>-117.30699999999997</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" ref="C15:G15" si="24">+E10-E14</f>
+        <v>-118.9</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="24"/>
+        <v>-114.98500000000004</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:J15" si="25">+G10-G14</f>
         <v>-132.71099999999998</v>
       </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
+      <c r="H15" s="4">
+        <f t="shared" si="25"/>
         <v>-118.42500000000001</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f>+K7-K11</f>
+      <c r="I15" s="4">
+        <f t="shared" si="25"/>
+        <v>-108.10299999999998</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="25"/>
+        <v>-84.67999999999995</v>
+      </c>
+      <c r="K15" s="4">
+        <f>+K10-K14</f>
         <v>-111.35100000000003</v>
       </c>
-      <c r="L12" s="4">
-        <f>+L7-L11</f>
+      <c r="L15" s="4">
+        <f>+L10-L14</f>
         <v>-108.34900000000005</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="Q12" s="2">
-        <f>+Q7-Q11</f>
+      <c r="M15" s="4">
+        <f>+M10-M14</f>
+        <v>-93.662999999999982</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" ref="N15:R15" si="26">+N10-N14</f>
+        <v>-69.73845</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="26"/>
+        <v>-91.454450000000065</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="26"/>
+        <v>-96.04015000000004</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="26"/>
+        <v>-90.525649999999985</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="26"/>
+        <v>-66.227219999999988</v>
+      </c>
+      <c r="U15" s="2">
+        <f>+U10-U14</f>
         <v>-339.62</v>
       </c>
-      <c r="R12" s="2">
-        <f>+R7-R11</f>
+      <c r="V15" s="2">
+        <f>+V10-V14</f>
         <v>-462.67399999999998</v>
       </c>
-      <c r="S12" s="2">
-        <f>+S7-S11</f>
+      <c r="W15" s="2">
+        <f>+W10-W14</f>
         <v>-443.91899999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+      <c r="X15" s="2">
+        <f>+X10-X14</f>
+        <v>-344.24747000000002</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" ref="Y15:AD15" si="27">+Y10-Y14</f>
+        <v>-239.85993910000036</v>
+      </c>
+      <c r="Z15" s="2">
+        <f t="shared" si="27"/>
+        <v>-114.25549389100047</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="27"/>
+        <v>-20.531711417910401</v>
+      </c>
+      <c r="AB15" s="2">
+        <f t="shared" si="27"/>
+        <v>86.400376531060829</v>
+      </c>
+      <c r="AC15" s="2">
+        <f t="shared" si="27"/>
+        <v>208.11363175372912</v>
+      </c>
+      <c r="AD15" s="2">
+        <f t="shared" si="27"/>
+        <v>346.3588511673363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="4">
+      <c r="C16" s="4">
+        <v>-0.81599999999999995</v>
+      </c>
+      <c r="D16" s="4">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>4.7190000000000003</v>
+      </c>
+      <c r="F16" s="4">
+        <f>+V16-E16-D16-C16</f>
+        <v>11.327</v>
+      </c>
+      <c r="G16" s="4">
         <v>15.185</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H16" s="4">
         <v>17.61</v>
       </c>
-      <c r="K13" s="4">
+      <c r="I16" s="4">
+        <v>17.529</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" ref="J16" si="28">+W16-I16-H16-G16</f>
+        <v>21.685000000000002</v>
+      </c>
+      <c r="K16" s="4">
         <v>20.85</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L16" s="4">
         <v>21.853000000000002</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="M16" s="4">
+        <v>22.495000000000001</v>
+      </c>
+      <c r="N16" s="4">
+        <f>+M16</f>
+        <v>22.495000000000001</v>
+      </c>
+      <c r="O16" s="4">
+        <f t="shared" ref="O16:R16" si="29">+N16</f>
+        <v>22.495000000000001</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="29"/>
+        <v>22.495000000000001</v>
+      </c>
+      <c r="Q16" s="4">
+        <f t="shared" si="29"/>
+        <v>22.495000000000001</v>
+      </c>
+      <c r="R16" s="4">
+        <f t="shared" si="29"/>
+        <v>22.495000000000001</v>
+      </c>
+      <c r="U16" s="2">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="R13" s="2">
+      <c r="V16" s="2">
         <v>16.416</v>
       </c>
-      <c r="S13" s="2">
+      <c r="W16" s="2">
         <v>72.009</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+      <c r="X16" s="2">
+        <f t="shared" ref="X16:X18" si="30">SUM(O16:R16)</f>
+        <v>89.98</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>+X16</f>
+        <v>89.98</v>
+      </c>
+      <c r="Z16" s="2">
+        <f t="shared" ref="Z16:AD16" si="31">+Y16</f>
+        <v>89.98</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="31"/>
+        <v>89.98</v>
+      </c>
+      <c r="AB16" s="2">
+        <f t="shared" si="31"/>
+        <v>89.98</v>
+      </c>
+      <c r="AC16" s="2">
+        <f t="shared" si="31"/>
+        <v>89.98</v>
+      </c>
+      <c r="AD16" s="2">
+        <f t="shared" si="31"/>
+        <v>89.98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="4">
-        <f>+G12+G13</f>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:F17" si="32">+C15+C16</f>
+        <v>-112.298</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="32"/>
+        <v>-116.12099999999998</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="32"/>
+        <v>-114.18100000000001</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="32"/>
+        <v>-103.65800000000004</v>
+      </c>
+      <c r="G17" s="4">
+        <f>+G15+G16</f>
         <v>-117.52599999999998</v>
       </c>
-      <c r="H14" s="4">
-        <f>+H12+H13</f>
+      <c r="H17" s="4">
+        <f>+H15+H16</f>
         <v>-100.81500000000001</v>
       </c>
-      <c r="K14" s="4">
-        <f>+K12+K13</f>
+      <c r="I17" s="4">
+        <f>+I15+I16</f>
+        <v>-90.573999999999984</v>
+      </c>
+      <c r="J17" s="4">
+        <f>+J15+J16</f>
+        <v>-62.994999999999948</v>
+      </c>
+      <c r="K17" s="4">
+        <f>+K15+K16</f>
         <v>-90.501000000000033</v>
       </c>
-      <c r="L14" s="4">
-        <f>+L12+L13</f>
+      <c r="L17" s="4">
+        <f>+L15+L16</f>
         <v>-86.496000000000038</v>
       </c>
-      <c r="Q14" s="2">
-        <f>+Q12+Q13</f>
+      <c r="M17" s="4">
+        <f>+M15+M16</f>
+        <v>-71.167999999999978</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" ref="N17:R17" si="33">+N15+N16</f>
+        <v>-47.243449999999996</v>
+      </c>
+      <c r="O17" s="4">
+        <f t="shared" si="33"/>
+        <v>-68.959450000000061</v>
+      </c>
+      <c r="P17" s="4">
+        <f t="shared" si="33"/>
+        <v>-73.545150000000035</v>
+      </c>
+      <c r="Q17" s="4">
+        <f t="shared" si="33"/>
+        <v>-68.03064999999998</v>
+      </c>
+      <c r="R17" s="4">
+        <f t="shared" si="33"/>
+        <v>-43.732219999999984</v>
+      </c>
+      <c r="U17" s="2">
+        <f>+U15+U16</f>
         <v>-339.62700000000001</v>
       </c>
-      <c r="R14" s="2">
-        <f>+R12+R13</f>
+      <c r="V17" s="2">
+        <f>+V15+V16</f>
         <v>-446.25799999999998</v>
       </c>
-      <c r="S14" s="2">
-        <f>+S12+S13</f>
+      <c r="W17" s="2">
+        <f>+W15+W16</f>
         <v>-371.90999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
+      <c r="X17" s="2">
+        <f>+X15+X16</f>
+        <v>-254.26747</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" ref="Y17:AD17" si="34">+Y15+Y16</f>
+        <v>-149.87993910000034</v>
+      </c>
+      <c r="Z17" s="2">
+        <f t="shared" si="34"/>
+        <v>-24.275493891000465</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="34"/>
+        <v>69.448288582089603</v>
+      </c>
+      <c r="AB17" s="2">
+        <f t="shared" si="34"/>
+        <v>176.38037653106085</v>
+      </c>
+      <c r="AC17" s="2">
+        <f t="shared" si="34"/>
+        <v>298.09363175372914</v>
+      </c>
+      <c r="AD17" s="2">
+        <f t="shared" si="34"/>
+        <v>436.33885116733632</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="4">
+      <c r="C18" s="4">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1.51</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1.8680000000000001</v>
+      </c>
+      <c r="F18" s="4">
+        <f>+V18-E18-D18-C18</f>
+        <v>2.226</v>
+      </c>
+      <c r="G18" s="4">
         <v>1.647</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H18" s="4">
         <v>1.667</v>
       </c>
-      <c r="K15" s="4">
+      <c r="I18" s="4">
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" ref="J18" si="35">+W18-I18-H18-G18</f>
+        <v>31.191000000000003</v>
+      </c>
+      <c r="K18" s="4">
         <v>2.4660000000000002</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L18" s="4">
         <v>3.4039999999999999</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="M18" s="4">
+        <v>2.976</v>
+      </c>
+      <c r="N18" s="4">
+        <f>+N17*0.1</f>
+        <v>-4.7243449999999996</v>
+      </c>
+      <c r="O18" s="4">
+        <f t="shared" ref="O18:R18" si="36">+O17*0.1</f>
+        <v>-6.8959450000000064</v>
+      </c>
+      <c r="P18" s="4">
+        <f t="shared" si="36"/>
+        <v>-7.3545150000000037</v>
+      </c>
+      <c r="Q18" s="4">
+        <f t="shared" si="36"/>
+        <v>-6.8030649999999984</v>
+      </c>
+      <c r="R18" s="4">
+        <f t="shared" si="36"/>
+        <v>-4.3732219999999984</v>
+      </c>
+      <c r="U18" s="2">
         <v>3.1739999999999999</v>
       </c>
-      <c r="R15" s="2">
+      <c r="V18" s="2">
         <v>6.2930000000000001</v>
       </c>
-      <c r="S15" s="2">
+      <c r="W18" s="2">
         <v>36.072000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
+      <c r="X18" s="2">
+        <f t="shared" si="30"/>
+        <v>-25.426747000000006</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>+Y17*0.1</f>
+        <v>-14.987993910000036</v>
+      </c>
+      <c r="Z18" s="2">
+        <f t="shared" ref="Z18:AD18" si="37">+Z17*0.1</f>
+        <v>-2.4275493891000468</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="37"/>
+        <v>6.944828858208961</v>
+      </c>
+      <c r="AB18" s="2">
+        <f t="shared" si="37"/>
+        <v>17.638037653106085</v>
+      </c>
+      <c r="AC18" s="2">
+        <f t="shared" si="37"/>
+        <v>29.809363175372916</v>
+      </c>
+      <c r="AD18" s="2">
+        <f t="shared" si="37"/>
+        <v>43.633885116733637</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4">
-        <f>+G14-G15</f>
+      <c r="C19" s="4">
+        <f t="shared" ref="C19:F19" si="38">+C17-C18</f>
+        <v>-112.98699999999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f t="shared" si="38"/>
+        <v>-117.63099999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="38"/>
+        <v>-116.04900000000001</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="38"/>
+        <v>-105.88400000000004</v>
+      </c>
+      <c r="G19" s="4">
+        <f>+G17-G18</f>
         <v>-119.17299999999999</v>
       </c>
-      <c r="H16" s="4">
-        <f>+H14-H15</f>
+      <c r="H19" s="4">
+        <f>+H17-H18</f>
         <v>-102.48200000000001</v>
       </c>
-      <c r="K16" s="4">
-        <f>+K14-K15</f>
+      <c r="I19" s="4">
+        <f>+I17-I18</f>
+        <v>-92.140999999999977</v>
+      </c>
+      <c r="J19" s="4">
+        <f>+J17-J18</f>
+        <v>-94.18599999999995</v>
+      </c>
+      <c r="K19" s="4">
+        <f>+K17-K18</f>
         <v>-92.967000000000027</v>
       </c>
-      <c r="L16" s="4">
-        <f>+L14-L15</f>
+      <c r="L19" s="4">
+        <f>+L17-L18</f>
         <v>-89.900000000000034</v>
       </c>
-      <c r="Q16" s="2">
-        <f>+Q14-Q15</f>
+      <c r="M19" s="4">
+        <f>+M17-M18</f>
+        <v>-74.143999999999977</v>
+      </c>
+      <c r="N19" s="4">
+        <f t="shared" ref="N19:R19" si="39">+N17-N18</f>
+        <v>-42.519104999999996</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" si="39"/>
+        <v>-62.063505000000056</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="39"/>
+        <v>-66.190635000000029</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="39"/>
+        <v>-61.227584999999983</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="39"/>
+        <v>-39.358997999999985</v>
+      </c>
+      <c r="U19" s="2">
+        <f>+U17-U18</f>
         <v>-342.80099999999999</v>
       </c>
-      <c r="R16" s="2">
-        <f>+R14-R15</f>
+      <c r="V19" s="2">
+        <f>+V17-V18</f>
         <v>-452.55099999999999</v>
       </c>
-      <c r="S16" s="2">
-        <f>+S14-S15</f>
+      <c r="W19" s="2">
+        <f>+W17-W18</f>
         <v>-407.98199999999997</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="X19" s="2">
+        <f>+X17-X18</f>
+        <v>-228.840723</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" ref="Y19:AD19" si="40">+Y17-Y18</f>
+        <v>-134.89194519000031</v>
+      </c>
+      <c r="Z19" s="2">
+        <f t="shared" si="40"/>
+        <v>-21.847944501900418</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="40"/>
+        <v>62.503459723880638</v>
+      </c>
+      <c r="AB19" s="2">
+        <f t="shared" si="40"/>
+        <v>158.74233887795475</v>
+      </c>
+      <c r="AC19" s="2">
+        <f t="shared" si="40"/>
+        <v>268.2842685783562</v>
+      </c>
+      <c r="AD19" s="2">
+        <f t="shared" si="40"/>
+        <v>392.70496605060271</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="4">
-        <f>+G16/G18</f>
+      <c r="C20" s="9">
+        <f>+C19/C21</f>
+        <v>-0.41403736583613809</v>
+      </c>
+      <c r="D20" s="9">
+        <f>+D19/D21</f>
+        <v>-0.42272408516393017</v>
+      </c>
+      <c r="E20" s="9">
+        <f>+E19/E21</f>
+        <v>-0.41113167830357072</v>
+      </c>
+      <c r="F20" s="9">
+        <f>+F19/F21</f>
+        <v>-0.37804864694599072</v>
+      </c>
+      <c r="G20" s="9">
+        <f>+G19/G21</f>
         <v>-0.40831552329977239</v>
       </c>
-      <c r="H17" s="4">
-        <f>+H16/H18</f>
+      <c r="H20" s="9">
+        <f>+H19/H21</f>
         <v>-0.34409886001009987</v>
       </c>
-      <c r="K17" s="4">
-        <f>+K16/K18</f>
+      <c r="I20" s="9">
+        <f>+I19/I21</f>
+        <v>-0.30319849020241846</v>
+      </c>
+      <c r="J20" s="9">
+        <f>+J19/J21</f>
+        <v>-0.31319385181441678</v>
+      </c>
+      <c r="K20" s="9">
+        <f>+K19/K21</f>
         <v>-0.29588179121585673</v>
       </c>
-      <c r="L17" s="4">
-        <f>+L16/L18</f>
+      <c r="L20" s="9">
+        <f>+L19/L21</f>
         <v>-0.28145151313937455</v>
       </c>
-      <c r="Q17" s="1">
-        <f>+Q16/Q18</f>
+      <c r="M20" s="9">
+        <f>+M19/M21</f>
+        <v>-0.22861514510400036</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" ref="N20:R20" si="41">+N19/N21</f>
+        <v>-0.13110314198407463</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="41"/>
+        <v>-0.19136622250266871</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="41"/>
+        <v>-0.20409178928909871</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="41"/>
+        <v>-0.18878875201152509</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="41"/>
+        <v>-0.12135928785765616</v>
+      </c>
+      <c r="U20" s="1">
+        <f>+U19/U21</f>
         <v>-1.8173415869099196</v>
       </c>
-      <c r="R17" s="1">
-        <f>+R16/R18</f>
+      <c r="V20" s="1">
+        <f>+V19/V21</f>
         <v>-1.6157898570516318</v>
       </c>
-      <c r="S17" s="1">
-        <f>+S16/S18</f>
+      <c r="W20" s="1">
+        <f>+W19/W21</f>
         <v>-1.3566501820965902</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="X20" s="1">
+        <f>+X19/X21</f>
+        <v>-0.70560605166094847</v>
+      </c>
+      <c r="Y20" s="1">
+        <f>+Y19/Y21</f>
+        <v>-0.41592497873021139</v>
+      </c>
+      <c r="Z20" s="1">
+        <f t="shared" ref="Z20:AD20" si="42">+Z19/Z21</f>
+        <v>-6.7365815204549415E-2</v>
+      </c>
+      <c r="AA20" s="1">
+        <f t="shared" si="42"/>
+        <v>0.19272277614206165</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="42"/>
+        <v>0.48946513321013208</v>
+      </c>
+      <c r="AC20" s="1">
+        <f t="shared" si="42"/>
+        <v>0.82722603299203612</v>
+      </c>
+      <c r="AD20" s="1">
+        <f t="shared" si="42"/>
+        <v>1.21086403210941</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="C21" s="4">
+        <v>272.890829</v>
+      </c>
+      <c r="D21" s="4">
+        <v>278.26898</v>
+      </c>
+      <c r="E21" s="4">
+        <v>282.26722999999998</v>
+      </c>
+      <c r="F21" s="4">
+        <f>+V21</f>
+        <v>280.08035699999999</v>
+      </c>
+      <c r="G21" s="4">
         <v>291.86497500000002</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H21" s="4">
         <v>297.8272</v>
       </c>
-      <c r="K18" s="4">
+      <c r="I21" s="4">
+        <v>303.89663200000001</v>
+      </c>
+      <c r="J21" s="4">
+        <f>+W21</f>
+        <v>300.727487</v>
+      </c>
+      <c r="K21" s="4">
         <v>314.20318099999997</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L21" s="4">
         <v>319.41558600000002</v>
       </c>
-      <c r="Q18" s="2">
+      <c r="M21" s="4">
+        <v>324.317971</v>
+      </c>
+      <c r="N21" s="4">
+        <f>+M21</f>
+        <v>324.317971</v>
+      </c>
+      <c r="O21" s="4">
+        <f t="shared" ref="O21:R21" si="43">+N21</f>
+        <v>324.317971</v>
+      </c>
+      <c r="P21" s="4">
+        <f t="shared" si="43"/>
+        <v>324.317971</v>
+      </c>
+      <c r="Q21" s="4">
+        <f t="shared" si="43"/>
+        <v>324.317971</v>
+      </c>
+      <c r="R21" s="4">
+        <f t="shared" si="43"/>
+        <v>324.317971</v>
+      </c>
+      <c r="U21" s="2">
         <v>188.62772000000001</v>
       </c>
-      <c r="R18" s="2">
+      <c r="V21" s="2">
         <v>280.08035699999999</v>
       </c>
-      <c r="S18" s="2">
+      <c r="W21" s="2">
         <v>300.727487</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="X21" s="2">
+        <f>AVERAGE(O21:R21)</f>
+        <v>324.317971</v>
+      </c>
+      <c r="Y21" s="2">
+        <f>+X21</f>
+        <v>324.317971</v>
+      </c>
+      <c r="Z21" s="2">
+        <f t="shared" ref="Z21:AD21" si="44">+Y21</f>
+        <v>324.317971</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="44"/>
+        <v>324.317971</v>
+      </c>
+      <c r="AB21" s="2">
+        <f t="shared" si="44"/>
+        <v>324.317971</v>
+      </c>
+      <c r="AC21" s="2">
+        <f t="shared" si="44"/>
+        <v>324.317971</v>
+      </c>
+      <c r="AD21" s="2">
+        <f t="shared" si="44"/>
+        <v>324.317971</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="K22" s="7">
-        <f>+K5/G5-1</f>
+      <c r="G25" s="7">
+        <f t="shared" ref="G25:I25" si="45">+G8/C8-1</f>
+        <v>0.38182481231022947</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="45"/>
+        <v>0.3577869117045771</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="45"/>
+        <v>0.31930640866791449</v>
+      </c>
+      <c r="J25" s="7">
+        <f>+J8/F8-1</f>
+        <v>0.26394175471049319</v>
+      </c>
+      <c r="K25" s="7">
+        <f>+K8/G8-1</f>
         <v>0.24632534336955381</v>
       </c>
-      <c r="L22" s="7">
-        <f>+L5/H5-1</f>
+      <c r="L25" s="7">
+        <f>+L8/H8-1</f>
         <v>0.24144015637794847</v>
       </c>
-      <c r="R22" s="8">
-        <f>+R5/Q5-1</f>
+      <c r="M25" s="7">
+        <f>+M8/I8-1</f>
+        <v>0.24986387319475867</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" ref="N25:R25" si="46">+N8/J8-1</f>
+        <v>0.22053718853197268</v>
+      </c>
+      <c r="O25" s="7">
+        <f t="shared" si="46"/>
+        <v>0.24379824799642802</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="46"/>
+        <v>0.19240720723787819</v>
+      </c>
+      <c r="Q25" s="7">
+        <f t="shared" si="46"/>
+        <v>0.15987274129792683</v>
+      </c>
+      <c r="R25" s="7">
+        <f t="shared" si="46"/>
+        <v>0.15372849242310682</v>
+      </c>
+      <c r="V25" s="8">
+        <f>+V8/U8-1</f>
         <v>0.51069447022667736</v>
       </c>
-      <c r="S22" s="8">
-        <f>+S5/R5-1</f>
+      <c r="W25" s="8">
+        <f>+W8/V8-1</f>
         <v>0.32598337042447745</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="X25" s="8">
+        <f>+X8/W8-1</f>
+        <v>0.46829662578898068</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" ref="Y25:AD25" si="47">+Y8/X8-1</f>
+        <v>0.14818582814105219</v>
+      </c>
+      <c r="Z25" s="8">
+        <f t="shared" si="47"/>
+        <v>0.14826196335477038</v>
+      </c>
+      <c r="AA25" s="8">
+        <f t="shared" si="47"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AB25" s="8">
+        <f t="shared" si="47"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AC25" s="8">
+        <f t="shared" si="47"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="AD25" s="8">
+        <f t="shared" si="47"/>
+        <v>0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="7">
-        <f>+G7/G5</f>
+      <c r="C26" s="7">
+        <f>+C10/C8</f>
+        <v>0.63709082837187547</v>
+      </c>
+      <c r="D26" s="7">
+        <f>+D10/D8</f>
+        <v>0.64486001420301708</v>
+      </c>
+      <c r="E26" s="7">
+        <f>+E10/E8</f>
+        <v>0.6495136161126196</v>
+      </c>
+      <c r="F26" s="7">
+        <f>+F10/F8</f>
+        <v>0.68014300451780441</v>
+      </c>
+      <c r="G26" s="7">
+        <f>+G10/G8</f>
         <v>0.66641805601771642</v>
       </c>
-      <c r="H23" s="7">
-        <f>+H7/H5</f>
+      <c r="H26" s="7">
+        <f>+H10/H8</f>
         <v>0.69400639247695284</v>
       </c>
-      <c r="K23" s="7">
-        <f>+K7/K5</f>
+      <c r="I26" s="7">
+        <f>+I10/I8</f>
+        <v>0.71751065285916249</v>
+      </c>
+      <c r="J26" s="7">
+        <f>+J10/J8</f>
+        <v>0.73235796307415191</v>
+      </c>
+      <c r="K26" s="7">
+        <f>+K10/K8</f>
         <v>0.71818336655357973</v>
       </c>
-      <c r="L23" s="7">
-        <f>+L7/L5</f>
+      <c r="L26" s="7">
+        <f>+L10/L8</f>
         <v>0.72346863217383162</v>
       </c>
-      <c r="Q23" s="8">
-        <f>+Q7/Q5</f>
+      <c r="M26" s="7">
+        <f>+M10/M8</f>
+        <v>0.7453906690274541</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" ref="N26:R26" si="48">+N10/N8</f>
+        <v>0.75</v>
+      </c>
+      <c r="O26" s="7">
+        <f t="shared" si="48"/>
+        <v>0.75</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="48"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q26" s="7">
+        <f t="shared" si="48"/>
+        <v>0.75</v>
+      </c>
+      <c r="R26" s="7">
+        <f t="shared" si="48"/>
+        <v>0.75</v>
+      </c>
+      <c r="U26" s="8">
+        <f>+U10/U8</f>
         <v>0.64603056741538267</v>
       </c>
-      <c r="R23" s="8">
-        <f>+R7/R5</f>
+      <c r="V26" s="8">
+        <f>+V10/V8</f>
         <v>0.65454889887088186</v>
       </c>
-      <c r="S23" s="8">
-        <f>+S7/S5</f>
+      <c r="W26" s="8">
+        <f>+W10/W8</f>
         <v>0.7043961531729116</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+      <c r="X26" s="8">
+        <f>+X10/X8</f>
+        <v>0.75</v>
+      </c>
+      <c r="Y26" s="8">
+        <f t="shared" ref="Y26:AD26" si="49">+Y10/Y8</f>
+        <v>0.76</v>
+      </c>
+      <c r="Z26" s="8">
+        <f t="shared" si="49"/>
+        <v>0.76999999999999991</v>
+      </c>
+      <c r="AA26" s="8">
+        <f t="shared" si="49"/>
+        <v>0.78</v>
+      </c>
+      <c r="AB26" s="8">
+        <f t="shared" si="49"/>
+        <v>0.79</v>
+      </c>
+      <c r="AC26" s="8">
+        <f t="shared" si="49"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD26" s="8">
+        <f t="shared" si="49"/>
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4">
         <v>-77.772000000000006</v>
       </c>
-      <c r="H27" s="4">
-        <f>-106.832-G27</f>
+      <c r="H30" s="4">
+        <f>-106.832-G30</f>
         <v>-29.059999999999988</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4">
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4">
         <v>-25.954000000000001</v>
       </c>
-      <c r="L27" s="4">
-        <f>-17.364-K27</f>
+      <c r="L30" s="4">
+        <f>-17.364-K30</f>
         <v>8.59</v>
       </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="Q27" s="2">
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="U30" s="2">
         <v>-105.06</v>
       </c>
-      <c r="R27" s="2">
+      <c r="V30" s="2">
         <v>-157.333</v>
       </c>
-      <c r="S27" s="2">
+      <c r="W30" s="2">
         <v>-103.657</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    <row r="31" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="U31" s="2">
         <v>-3.6</v>
       </c>
-      <c r="R28" s="2">
+      <c r="V31" s="2">
         <v>-4.1210000000000004</v>
       </c>
-      <c r="S28" s="2">
+      <c r="W31" s="2">
         <v>-2.8340000000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="2">
-        <f>+Q27+Q28</f>
+      <c r="U32" s="2">
+        <f>+U30+U31</f>
         <v>-108.66</v>
       </c>
-      <c r="R29" s="2">
-        <f>+R27+R28</f>
+      <c r="V32" s="2">
+        <f>+V30+V31</f>
         <v>-161.45400000000001</v>
       </c>
-      <c r="S29" s="2">
-        <f>+S27+S28</f>
+      <c r="W32" s="2">
+        <f>+W30+W31</f>
         <v>-106.491</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{79B40BC2-42A1-4994-B47B-CFFEC17CF4D9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>